--- a/Results/Experiments_Results.xlsx
+++ b/Results/Experiments_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\masters-research-qa\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3224290-6318-4BE5-88EE-36AD712B3C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330A383-3A50-4F4B-AAA1-5893A016B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="XQuAD" sheetId="2" r:id="rId2"/>
     <sheet name="LAreQA" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MLQA!$A$76:$S$76</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,30 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="31">
   <si>
     <t>hi</t>
   </si>
@@ -90,12 +71,75 @@
   <si>
     <t>vi</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQuAD </t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>{'exact_match': 76.29139072847683, 'f1': 84.20797355983834}</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>"../Notebooks/squad-qa-minilmv2-XLMTokeinizer-8/checkpoint-7000"</t>
+  </si>
+  <si>
+    <t>Baselines</t>
+  </si>
+  <si>
+    <t>DAPT</t>
+  </si>
+  <si>
+    <t> "../models/zh-pretrained-squad-minilmv2-32"</t>
+  </si>
+  <si>
+    <t>{'exact_match': 66.6414380321665, 'f1': 77.40720243362999}</t>
+  </si>
+  <si>
+    <t>TAPT</t>
+  </si>
+  <si>
+    <t> "subhasisj/zh-finetuned-squad-qa-minilmv2-32"</t>
+  </si>
+  <si>
+    <t>Teacher Model</t>
+  </si>
+  <si>
+    <t>Knowledge Distillation</t>
+  </si>
+  <si>
+    <t>bhavikardeshna/xlm-roberta-base-chinese</t>
+  </si>
+  <si>
+    <t>bhavikardeshna/xlm-roberta-base-vietnamese</t>
+  </si>
+  <si>
+    <t>bhavikardeshna/xlm-roberta-base-arabic</t>
+  </si>
+  <si>
+    <t>bhavikardeshna/xlm-roberta-base-german</t>
+  </si>
+  <si>
+    <t>bhavikardeshna/xlm-roberta-base-spanish</t>
+  </si>
+  <si>
+    <t>bhavikardeshna/xlm-roberta-base-hindi</t>
+  </si>
+  <si>
+    <t>vanichandna/xlm-roberta-finetuned-squad</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +162,55 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF44546A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +227,67 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FFED7D31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -160,30 +310,2188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
     <cellStyle name="Accent5" xfId="1" builtinId="45"/>
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -194,6 +2502,162 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B11EAB1C-5FD4-4552-894C-5A1F8E4F2FF3}" name="Table3" displayName="Table3" ref="A8:I15" totalsRowShown="0" headerRowDxfId="103" headerRowBorderDxfId="102" tableBorderDxfId="101" totalsRowBorderDxfId="100">
+  <autoFilter ref="A8:I15" xr:uid="{B11EAB1C-5FD4-4552-894C-5A1F8E4F2FF3}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{E127BB35-5EE8-45E0-8812-210BADA8599A}" name="c/q" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{45EE4E04-49D0-49F0-A049-94E414A018EE}" name="en" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{46C1EB45-C0E6-4E05-859A-D1A7CCA13644}" name="hi" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{7506013A-AF18-4577-BDBB-E4F6002266F3}" name="es" dataDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{403009BC-64F1-4320-B293-67B385895E65}" name="zh" dataDxfId="95"/>
+    <tableColumn id="6" xr3:uid="{48E94BFA-FE63-4DF1-8F40-4411568A5434}" name="ar" dataDxfId="94"/>
+    <tableColumn id="7" xr3:uid="{5B7841AB-4FC1-4AA7-948C-64E170C7AFEA}" name="de" dataDxfId="93"/>
+    <tableColumn id="8" xr3:uid="{2CB7D5A4-9B94-4B07-B9DE-FBDCA8EA4F5F}" name="vi" dataDxfId="92"/>
+    <tableColumn id="9" xr3:uid="{67EBF93E-CABB-4AE1-A0DF-859453C03447}" name="Mean" dataDxfId="91">
+      <calculatedColumnFormula>AVERAGE(B9:H9)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{3606307E-2F01-42B0-922B-C7B982BD85C4}" name="Table5" displayName="Table5" ref="K8:S15" totalsRowShown="0" headerRowDxfId="90" headerRowBorderDxfId="89" tableBorderDxfId="88" totalsRowBorderDxfId="87">
+  <autoFilter ref="K8:S15" xr:uid="{3606307E-2F01-42B0-922B-C7B982BD85C4}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C2EFAF6C-4348-464D-B0A2-BEBA886C1540}" name="c/q" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{C55EA29A-4F8A-487B-9C73-A8BF058C1BEF}" name="en" dataDxfId="85"/>
+    <tableColumn id="3" xr3:uid="{E282AC14-9AC9-4C5A-95F9-3A0F9EED8B85}" name="hi" dataDxfId="84"/>
+    <tableColumn id="4" xr3:uid="{93BBA457-738C-4DCE-A535-4EF21E7222C8}" name="es" dataDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{D8B9B394-4DDD-4593-87CB-E4C856C0CD74}" name="zh" dataDxfId="82"/>
+    <tableColumn id="6" xr3:uid="{58DF3426-1641-4174-A3E4-4B4B4F179437}" name="ar" dataDxfId="81"/>
+    <tableColumn id="7" xr3:uid="{F84C9C62-29AD-445B-B39E-DBA738E2D7A7}" name="de" dataDxfId="80"/>
+    <tableColumn id="8" xr3:uid="{3E143AC7-C2ED-4EEB-863A-67D7E8DF5362}" name="vi" dataDxfId="79"/>
+    <tableColumn id="9" xr3:uid="{161755FD-1DF0-4BE0-A038-F8BA340FE5BB}" name="Mean" dataDxfId="78">
+      <calculatedColumnFormula>AVERAGE(L9:R9)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6043716D-F33E-4DD3-AE39-306774FBC77D}" name="Table37" displayName="Table37" ref="A25:I32" totalsRowShown="0" headerRowDxfId="77" headerRowBorderDxfId="76" tableBorderDxfId="75" totalsRowBorderDxfId="74">
+  <autoFilter ref="A25:I32" xr:uid="{6043716D-F33E-4DD3-AE39-306774FBC77D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{08B16E44-D2A7-4446-8443-A561B020EC63}" name="c/q" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{6D349632-4D6F-4C5A-8685-EE2BD4CA5AF0}" name="en" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{FD515CE7-9928-43DD-92BE-BF5EF71D423F}" name="hi" dataDxfId="71"/>
+    <tableColumn id="4" xr3:uid="{27D0BB5E-ED15-4401-94D3-4E3D2A8081CA}" name="es" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{61612AD1-791D-457C-B27F-C5878DFC63EA}" name="zh" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{7868E8E3-3D61-441E-AEF0-8BC7B58036F5}" name="ar" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{231285F5-CAF8-43ED-A509-706E296B1446}" name="de" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{C07722CD-6C08-4FB7-B458-C0E26FB3EC84}" name="vi" dataDxfId="66"/>
+    <tableColumn id="9" xr3:uid="{7FC7666E-C9BA-45FA-999C-E9722A604A3E}" name="Mean" dataDxfId="65"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5203D90A-D71D-46C3-BE7D-B1198C3A1C47}" name="Table58" displayName="Table58" ref="K25:S32" totalsRowShown="0" headerRowDxfId="64" headerRowBorderDxfId="63" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+  <autoFilter ref="K25:S32" xr:uid="{5203D90A-D71D-46C3-BE7D-B1198C3A1C47}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C5319C5E-B0E0-4454-8444-F43FC5DE8300}" name="c/q" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{BA963A37-3225-4FF4-8F36-92FA0C4ED37F}" name="en" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{8FC3F646-4C13-4278-980E-948470622138}" name="hi" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{3727709C-3C01-4B5A-9E6C-69E59E9C5434}" name="es" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{58AA5428-8DDF-406D-809F-793B8D077949}" name="zh" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{93A3F930-6B93-47C9-9724-4F1EC3778326}" name="ar" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{CB9D02A2-F0DE-49AB-B4A0-EB800AEC082F}" name="de" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{596D76C0-5998-4BE2-8CC0-1CB42342266A}" name="vi" dataDxfId="53"/>
+    <tableColumn id="9" xr3:uid="{08B54F40-D71A-4C22-BEA0-90F657D7CA56}" name="Mean" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A17F1B8A-EC7D-4F88-9D4B-85343B98D438}" name="Table379" displayName="Table379" ref="A42:I49" totalsRowShown="0" headerRowDxfId="51" headerRowBorderDxfId="50" tableBorderDxfId="49" totalsRowBorderDxfId="48">
+  <autoFilter ref="A42:I49" xr:uid="{A17F1B8A-EC7D-4F88-9D4B-85343B98D438}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{C89E38A7-A38E-42DC-9468-FB70A144008C}" name="c/q" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{D8D75FBE-5A37-449D-8F82-27089D18D806}" name="en" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{ECBE5EDB-E221-4B54-B498-17939CCD9975}" name="hi" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{C382BCFC-3FBD-4B0D-AD08-C70DD76EB1C3}" name="es" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{D1EBC330-80BF-4BEB-BA9C-2AA28AB45473}" name="zh" dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{37134FD8-20F4-41D9-A079-86097A5F35B0}" name="ar" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{21EE0E6D-B5B2-4205-AC2E-631C2B309C0E}" name="de" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{4EC501D6-7117-4EBB-A52B-51A0FAFC8082}" name="vi" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{D0397E21-20AA-47F6-833C-0D98FDD984BE}" name="Mean" dataDxfId="39">
+      <calculatedColumnFormula>AVERAGE(Table379[[#This Row],[en]:[vi]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DA885FA0-12DA-4AA0-ABAD-6AFDEDE985AC}" name="Table5810" displayName="Table5810" ref="K42:S49" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+  <autoFilter ref="K42:S49" xr:uid="{DA885FA0-12DA-4AA0-ABAD-6AFDEDE985AC}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{AACD0B23-BB37-494F-A51F-DC5D6290BD5B}" name="c/q" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{2642CD4C-BDBD-4F97-B4B0-6B1FCCBA8D2A}" name="en" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{C6E3A46A-9863-411B-9D91-3DD4D979E29F}" name="hi" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{AC35EF92-19F1-47E3-8B61-E2327648BC1E}" name="es" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{FA2F606D-B9FD-46CB-BFA1-077161CCB9A7}" name="zh" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{6F76608B-3C8E-4DD1-B8E1-9AAE63D4F5A8}" name="ar" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{35F21E42-7B2E-460B-83EC-EB3BED660BEA}" name="de" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{85084FF8-D962-4742-B855-C0B562FC5F77}" name="vi" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{01A64B42-FCD1-4EA3-961E-C84C05872214}" name="Mean" dataDxfId="26">
+      <calculatedColumnFormula>AVERAGE(Table5810[[#This Row],[en]:[vi]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1833CDA-30B8-4496-9F05-CC2820966B51}" name="Table3792" displayName="Table3792" ref="A59:I66" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A59:I66" xr:uid="{C1833CDA-30B8-4496-9F05-CC2820966B51}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9CABA984-772A-4574-807E-AA86B0C097D9}" name="c/q" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8943F1D8-8483-428B-B0C9-2A2002E30F5A}" name="en" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{7DCBFFA3-2E22-4718-84CF-6EB9684FF2A4}" name="hi" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{17E23FAA-299E-4D2E-9AD3-03C947E6D06A}" name="es" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{F378C535-1C81-4672-B61C-51A0AFD9AAEC}" name="zh" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{CE78592D-088D-42A8-8F22-A72C99072EBB}" name="ar" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{20247E72-BF1B-4707-8ECB-52D77259D5A6}" name="de" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{405C6A36-0EF2-440F-91DD-DD95C750A204}" name="vi" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{9DB9015C-B516-4C04-A394-92ED1422C0B8}" name="Mean" dataDxfId="13">
+      <calculatedColumnFormula>AVERAGE(Table3792[[#This Row],[en]:[vi]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EBE512BE-ADE6-4794-B1EA-A62AD594A8C8}" name="Table58103" displayName="Table58103" ref="K59:S66" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="K59:S66" xr:uid="{EBE512BE-ADE6-4794-B1EA-A62AD594A8C8}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{221F508C-3F35-41A2-99BF-661097224E59}" name="c/q" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{BFD22782-6B00-449D-B986-F45ED6ACB01F}" name="en" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{8D9E3235-900B-488A-8EA3-271EEB345B6D}" name="hi" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D579DA08-3B0C-491F-BB87-EA9BF3D6D199}" name="es" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{87BE81BD-DC46-4894-A610-E813EED6E5D2}" name="zh" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{BF81BDE4-1651-4E5F-813D-C3CFA4C4E244}" name="ar" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{336ED67A-95F0-4531-9CC2-5E21B3463E6C}" name="de" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{80EC63AC-7492-4F19-9D78-6284CD1324BA}" name="vi" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{EC27FAD1-AB90-4EAC-9373-D1E4CB16D1E6}" name="Mean" dataDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Table58103[[#This Row],[en]:[vi]])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,495 +2923,2744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:Y16"/>
+  <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="T71" sqref="T71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="20" max="20" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="1" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+    </row>
+    <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="K4" s="5" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="I8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="S8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B9" s="1">
         <v>61.51</v>
       </c>
-      <c r="D7" s="2">
+      <c r="C9" s="1">
         <v>31.13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="D9" s="1">
         <v>36.06</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E9" s="1">
         <v>27.08</v>
       </c>
-      <c r="G7" s="2">
+      <c r="F9" s="1">
         <v>24.14</v>
       </c>
-      <c r="H7" s="2">
+      <c r="G9" s="1">
         <v>39.01</v>
       </c>
-      <c r="I7" s="2">
+      <c r="H9" s="1">
         <v>27.73</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="I9" s="4">
+        <f>AVERAGE(B9:H9)</f>
+        <v>35.23714285714285</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L9" s="1">
         <v>74.55</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M9" s="1">
         <v>42.74</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N9" s="1">
         <v>48.81</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O9" s="1">
         <v>38.130000000000003</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P9" s="1">
         <v>33.630000000000003</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q9" s="1">
         <v>50.83</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R9" s="1">
         <v>38.18</v>
       </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="S9" s="4">
+        <f>AVERAGE(L9:R9)</f>
+        <v>46.695714285714288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B10" s="1">
         <v>36.659999999999997</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C10" s="1">
         <v>35.479999999999997</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D10" s="1">
         <v>19.91</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E10" s="1">
         <v>17.829999999999998</v>
       </c>
-      <c r="G8" s="2">
+      <c r="F10" s="1">
         <v>14.04</v>
       </c>
-      <c r="H8" s="2">
+      <c r="G10" s="1">
         <v>23.14</v>
       </c>
-      <c r="I8" s="2">
+      <c r="H10" s="1">
         <v>16.690000000000001</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="I10" s="4">
+        <f t="shared" ref="I10:I15" si="0">AVERAGE(B10:H10)</f>
+        <v>23.392857142857142</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L10" s="1">
         <v>51.58</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M10" s="1">
         <v>51.46</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N10" s="1">
         <v>30.77</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O10" s="1">
         <v>27.29</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P10" s="1">
         <v>23.26</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q10" s="1">
         <v>34.619999999999997</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R10" s="1">
         <v>26.08</v>
       </c>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="S10" s="4">
+        <f t="shared" ref="S10:S15" si="1">AVERAGE(L10:R10)</f>
+        <v>35.008571428571429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="B11" s="1">
         <v>42.13</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C11" s="1">
         <v>23.04</v>
       </c>
-      <c r="E9" s="2">
+      <c r="D11" s="1">
         <v>43.71</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E11" s="1">
         <v>20.96</v>
       </c>
-      <c r="G9" s="2">
+      <c r="F11" s="1">
         <v>21.54</v>
       </c>
-      <c r="H9" s="2">
+      <c r="G11" s="1">
         <v>29.5</v>
       </c>
-      <c r="I9" s="2">
+      <c r="H11" s="1">
         <v>22.35</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>29.032857142857143</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L11" s="1">
         <v>59.91</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M11" s="1">
         <v>36.47</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N11" s="1">
         <v>61.91</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O11" s="1">
         <v>34.03</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P11" s="1">
         <v>34.85</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q11" s="1">
         <v>45.99</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R11" s="1">
         <v>34.44</v>
       </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="S11" s="4">
+        <f t="shared" si="1"/>
+        <v>43.942857142857136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
+      <c r="B12" s="1">
         <v>32.159999999999997</v>
       </c>
-      <c r="D10" s="2">
+      <c r="C12" s="1">
         <v>14.49</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D12" s="1">
         <v>16.690000000000001</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E12" s="1">
         <v>34.11</v>
       </c>
-      <c r="G10" s="2">
+      <c r="F12" s="1">
         <v>11.87</v>
       </c>
-      <c r="H10" s="2">
+      <c r="G12" s="1">
         <v>17.77</v>
       </c>
-      <c r="I10" s="2">
+      <c r="H12" s="1">
         <v>15.03</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="I12" s="4">
+        <f t="shared" si="0"/>
+        <v>20.302857142857142</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L12" s="1">
         <v>51.47</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M12" s="1">
         <v>27.33</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N12" s="1">
         <v>31.43</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O12" s="1">
         <v>55.42</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P12" s="1">
         <v>23.08</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q12" s="1">
         <v>33.39</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R12" s="1">
         <v>28.32</v>
       </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="S12" s="4">
+        <f t="shared" si="1"/>
+        <v>35.777142857142849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="B13" s="1">
         <v>27.5</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C13" s="1">
         <v>12.51</v>
       </c>
-      <c r="E11" s="2">
+      <c r="D13" s="1">
         <v>16.89</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E13" s="1">
         <v>11.72</v>
       </c>
-      <c r="G11" s="2">
+      <c r="F13" s="1">
         <v>30.76</v>
       </c>
-      <c r="H11" s="2">
+      <c r="G13" s="1">
         <v>20.98</v>
       </c>
-      <c r="I11" s="2">
+      <c r="H13" s="1">
         <v>11.63</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>18.855714285714289</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L13" s="1">
         <v>42.88</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M13" s="1">
         <v>22.15</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N13" s="1">
         <v>29.35</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O13" s="1">
         <v>21.58</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P13" s="1">
         <v>48.68</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q13" s="1">
         <v>33.44</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R13" s="1">
         <v>20.72</v>
       </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="S13" s="4">
+        <f t="shared" si="1"/>
+        <v>31.257142857142856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2">
+      <c r="B14" s="1">
         <v>38.79</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C14" s="1">
         <v>20.63</v>
       </c>
-      <c r="E12" s="2">
+      <c r="D14" s="1">
         <v>25.28</v>
       </c>
-      <c r="F12" s="2">
+      <c r="E14" s="1">
         <v>19.559999999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="F14" s="1">
         <v>20.92</v>
       </c>
-      <c r="H12" s="2">
+      <c r="G14" s="1">
         <v>42.17</v>
       </c>
-      <c r="I12" s="2">
+      <c r="H14" s="1">
         <v>15.64</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>26.141428571428573</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L14" s="1">
         <v>52.51</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M14" s="1">
         <v>31.36</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N14" s="1">
         <v>37.08</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O14" s="1">
         <v>29.54</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P14" s="1">
         <v>30.23</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q14" s="1">
         <v>56.93</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R14" s="1">
         <v>25.11</v>
       </c>
-      <c r="Y12" cm="1">
-        <f t="array" aca="1" ref="Y12" ca="1">+Y12:Z12</f>
+      <c r="S14" s="4">
+        <f t="shared" si="1"/>
+        <v>37.537142857142854</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="9">
+        <v>33.89</v>
+      </c>
+      <c r="C15" s="9">
+        <v>16.95</v>
+      </c>
+      <c r="D15" s="9">
+        <v>16.25</v>
+      </c>
+      <c r="E15" s="9">
+        <v>17.86</v>
+      </c>
+      <c r="F15" s="9">
+        <v>12.41</v>
+      </c>
+      <c r="G15" s="9">
+        <v>19.34</v>
+      </c>
+      <c r="H15" s="9">
+        <v>35.409999999999997</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>21.73</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="9">
+        <v>50.82</v>
+      </c>
+      <c r="M15" s="9">
+        <v>27.78</v>
+      </c>
+      <c r="N15" s="9">
+        <v>26.51</v>
+      </c>
+      <c r="O15" s="9">
+        <v>29.96</v>
+      </c>
+      <c r="P15" s="9">
+        <v>21.09</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>32.39</v>
+      </c>
+      <c r="R15" s="9">
+        <v>53.55</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="1"/>
+        <v>34.585714285714289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+      <c r="D25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="2">
-        <v>33.89</v>
-      </c>
-      <c r="D13" s="2">
-        <v>16.95</v>
-      </c>
-      <c r="E13" s="2">
-        <v>16.25</v>
-      </c>
-      <c r="F13" s="2">
-        <v>17.86</v>
-      </c>
-      <c r="G13" s="2">
-        <v>12.41</v>
-      </c>
-      <c r="H13" s="2">
-        <v>19.34</v>
-      </c>
-      <c r="I13" s="2">
-        <v>35.409999999999997</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="I25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="2">
-        <v>50.82</v>
-      </c>
-      <c r="M13" s="2">
-        <v>27.78</v>
-      </c>
-      <c r="N13" s="2">
-        <v>26.51</v>
-      </c>
-      <c r="O13" s="2">
-        <v>29.96</v>
-      </c>
-      <c r="P13" s="2">
-        <v>21.09</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>32.39</v>
-      </c>
-      <c r="R13" s="2">
-        <v>53.55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-    </row>
-    <row r="16" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="S25" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="4"/>
+      <c r="K26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="4"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="4"/>
+      <c r="K27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="4"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="4"/>
+      <c r="K28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="4"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>18.84</v>
+      </c>
+      <c r="C29" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="D29" s="1">
+        <v>14.07</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28.22</v>
+      </c>
+      <c r="F29" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="I29" s="4">
+        <f>AVERAGE(Table37[[#This Row],[en]:[vi]])</f>
+        <v>15.744285714285715</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="1">
+        <v>35.79</v>
+      </c>
+      <c r="M29" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="N29" s="1">
+        <v>27.94</v>
+      </c>
+      <c r="O29" s="1">
+        <v>48.98</v>
+      </c>
+      <c r="P29" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>29.28</v>
+      </c>
+      <c r="R29" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="S29" s="4">
+        <f>AVERAGE(Table58[[#This Row],[en]:[vi]])</f>
+        <v>30.884285714285713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20.059999999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13.75</v>
+      </c>
+      <c r="E30" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="F30" s="1">
+        <v>31.96</v>
+      </c>
+      <c r="G30" s="1">
+        <v>19.41</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10.89</v>
+      </c>
+      <c r="I30" s="4">
+        <f>AVERAGE(Table37[[#This Row],[en]:[vi]])</f>
+        <v>16.982857142857142</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="1">
+        <v>33.33</v>
+      </c>
+      <c r="M30" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N30" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="O30" s="1">
+        <v>22.31</v>
+      </c>
+      <c r="P30" s="1">
+        <v>49.08</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>30.52</v>
+      </c>
+      <c r="R30" s="1">
+        <v>19.38</v>
+      </c>
+      <c r="S30" s="4">
+        <f>AVERAGE(Table58[[#This Row],[en]:[vi]])</f>
+        <v>27.845714285714283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="4"/>
+      <c r="K31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="4"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="K32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="10"/>
+    </row>
+    <row r="35" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="25"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="27"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L42" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>62.48</v>
+      </c>
+      <c r="C43" s="1">
+        <v>29.75</v>
+      </c>
+      <c r="D43" s="1">
+        <v>33.54</v>
+      </c>
+      <c r="E43" s="1">
+        <v>26.44</v>
+      </c>
+      <c r="F43" s="1">
+        <v>23.09</v>
+      </c>
+      <c r="G43" s="1">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="H43" s="1">
+        <v>27.42</v>
+      </c>
+      <c r="I43" s="4">
+        <f>AVERAGE(Table379[[#This Row],[en]:[vi]])</f>
+        <v>34.431428571428569</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="M43" s="1">
+        <v>42.76</v>
+      </c>
+      <c r="N43" s="1">
+        <v>47.51</v>
+      </c>
+      <c r="O43" s="1">
+        <v>38.36</v>
+      </c>
+      <c r="P43" s="1">
+        <v>34.49</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>51.62</v>
+      </c>
+      <c r="R43" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="S43" s="4">
+        <f>AVERAGE(Table5810[[#This Row],[en]:[vi]])</f>
+        <v>47.148571428571422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>36.880000000000003</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42.4</v>
+      </c>
+      <c r="D44" s="1">
+        <v>22.81</v>
+      </c>
+      <c r="E44" s="1">
+        <v>22.64</v>
+      </c>
+      <c r="F44" s="1">
+        <v>16.38</v>
+      </c>
+      <c r="G44" s="1">
+        <v>24.69</v>
+      </c>
+      <c r="H44" s="1">
+        <v>23.27</v>
+      </c>
+      <c r="I44" s="4">
+        <f>AVERAGE(Table379[[#This Row],[en]:[vi]])</f>
+        <v>27.01</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <v>52.34</v>
+      </c>
+      <c r="M44" s="1">
+        <v>58.76</v>
+      </c>
+      <c r="N44" s="1">
+        <v>34.96</v>
+      </c>
+      <c r="O44" s="1">
+        <v>32.909999999999997</v>
+      </c>
+      <c r="P44" s="1">
+        <v>26.66</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>35.9</v>
+      </c>
+      <c r="R44" s="1">
+        <v>35.369999999999997</v>
+      </c>
+      <c r="S44" s="4">
+        <f>AVERAGE(Table5810[[#This Row],[en]:[vi]])</f>
+        <v>39.557142857142857</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <v>41.31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>25.77</v>
+      </c>
+      <c r="D45" s="1">
+        <v>49.23</v>
+      </c>
+      <c r="E45" s="1">
+        <v>21.78</v>
+      </c>
+      <c r="F45" s="1">
+        <v>22.35</v>
+      </c>
+      <c r="G45" s="1">
+        <v>28</v>
+      </c>
+      <c r="H45" s="1">
+        <v>22.55</v>
+      </c>
+      <c r="I45" s="4">
+        <f>AVERAGE(Table379[[#This Row],[en]:[vi]])</f>
+        <v>30.141428571428573</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>59.25</v>
+      </c>
+      <c r="M45" s="1">
+        <v>40.33</v>
+      </c>
+      <c r="N45" s="1">
+        <v>67.12</v>
+      </c>
+      <c r="O45" s="1">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="P45" s="1">
+        <v>36.65</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>45.04</v>
+      </c>
+      <c r="R45" s="1">
+        <v>35.36</v>
+      </c>
+      <c r="S45" s="4">
+        <f>AVERAGE(Table5810[[#This Row],[en]:[vi]])</f>
+        <v>45.721428571428575</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <v>27.35</v>
+      </c>
+      <c r="C46" s="1">
+        <v>18.22</v>
+      </c>
+      <c r="D46" s="1">
+        <v>17.57</v>
+      </c>
+      <c r="E46" s="1">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="F46" s="1">
+        <v>15.22</v>
+      </c>
+      <c r="G46" s="1">
+        <v>19.25</v>
+      </c>
+      <c r="H46" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="I46" s="4">
+        <f>AVERAGE(Table379[[#This Row],[en]:[vi]])</f>
+        <v>21.598571428571429</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="1">
+        <v>45.84</v>
+      </c>
+      <c r="M46" s="1">
+        <v>33.119999999999997</v>
+      </c>
+      <c r="N46" s="1">
+        <v>33.96</v>
+      </c>
+      <c r="O46" s="1">
+        <v>57.78</v>
+      </c>
+      <c r="P46" s="1">
+        <v>27.51</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>34.31</v>
+      </c>
+      <c r="R46" s="1">
+        <v>33.69</v>
+      </c>
+      <c r="S46" s="4">
+        <f>AVERAGE(Table5810[[#This Row],[en]:[vi]])</f>
+        <v>38.030000000000008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <v>28.15</v>
+      </c>
+      <c r="C47" s="1">
+        <v>14.58</v>
+      </c>
+      <c r="D47" s="1">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="E47" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="F47" s="1">
+        <v>33.96</v>
+      </c>
+      <c r="G47" s="1">
+        <v>24.44</v>
+      </c>
+      <c r="H47" s="1">
+        <v>15.68</v>
+      </c>
+      <c r="I47" s="4">
+        <f>AVERAGE(Table379[[#This Row],[en]:[vi]])</f>
+        <v>21.474285714285713</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" s="1">
+        <v>43.93</v>
+      </c>
+      <c r="M47" s="1">
+        <v>25.78</v>
+      </c>
+      <c r="N47" s="1">
+        <v>31.64</v>
+      </c>
+      <c r="O47" s="1">
+        <v>26.98</v>
+      </c>
+      <c r="P47" s="1">
+        <v>53.05</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>37.71</v>
+      </c>
+      <c r="R47" s="1">
+        <v>26.64</v>
+      </c>
+      <c r="S47" s="4">
+        <f>AVERAGE(Table5810[[#This Row],[en]:[vi]])</f>
+        <v>35.104285714285716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="1">
+        <v>39.74</v>
+      </c>
+      <c r="C48" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="D48" s="1">
+        <v>28.6</v>
+      </c>
+      <c r="E48" s="1">
+        <v>23.94</v>
+      </c>
+      <c r="F48" s="1">
+        <v>24.08</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45.3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>19.04</v>
+      </c>
+      <c r="I48" s="4">
+        <f>AVERAGE(Table379[[#This Row],[en]:[vi]])</f>
+        <v>29.500000000000004</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="1">
+        <v>52.57</v>
+      </c>
+      <c r="M48" s="1">
+        <v>35.85</v>
+      </c>
+      <c r="N48" s="1">
+        <v>40.56</v>
+      </c>
+      <c r="O48" s="1">
+        <v>34.409999999999997</v>
+      </c>
+      <c r="P48" s="1">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>59.55</v>
+      </c>
+      <c r="R48" s="1">
+        <v>28.59</v>
+      </c>
+      <c r="S48" s="4">
+        <f>AVERAGE(Table5810[[#This Row],[en]:[vi]])</f>
+        <v>40.705714285714286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="9">
+        <v>34.21</v>
+      </c>
+      <c r="C49" s="9">
+        <v>20.8</v>
+      </c>
+      <c r="D49" s="9">
+        <v>22.84</v>
+      </c>
+      <c r="E49" s="9">
+        <v>19.61</v>
+      </c>
+      <c r="F49" s="9">
+        <v>15.88</v>
+      </c>
+      <c r="G49" s="9">
+        <v>24.48</v>
+      </c>
+      <c r="H49" s="9">
+        <v>43.15</v>
+      </c>
+      <c r="I49" s="10">
+        <f>AVERAGE(Table379[[#This Row],[en]:[vi]])</f>
+        <v>25.852857142857143</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49" s="9">
+        <v>50.37</v>
+      </c>
+      <c r="M49" s="9">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="N49" s="9">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O49" s="9">
+        <v>31.56</v>
+      </c>
+      <c r="P49" s="9">
+        <v>26.89</v>
+      </c>
+      <c r="Q49" s="9">
+        <v>38.6</v>
+      </c>
+      <c r="R49" s="9">
+        <v>61.93</v>
+      </c>
+      <c r="S49" s="10">
+        <f>AVERAGE(Table5810[[#This Row],[en]:[vi]])</f>
+        <v>39.545714285714283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="27"/>
+      <c r="M58" s="27"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S59" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="4" t="e">
+        <f>AVERAGE(Table3792[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="4" t="e">
+        <f>AVERAGE(Table58103[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="4" t="e">
+        <f>AVERAGE(Table3792[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="4" t="e">
+        <f>AVERAGE(Table58103[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="4" t="e">
+        <f>AVERAGE(Table3792[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="4" t="e">
+        <f>AVERAGE(Table58103[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="4" t="e">
+        <f>AVERAGE(Table3792[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="4" t="e">
+        <f>AVERAGE(Table58103[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="4" t="e">
+        <f>AVERAGE(Table3792[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="4" t="e">
+        <f>AVERAGE(Table58103[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="4" t="e">
+        <f>AVERAGE(Table3792[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="4" t="e">
+        <f>AVERAGE(Table58103[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="10" t="e">
+        <f>AVERAGE(Table3792[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="10" t="e">
+        <f>AVERAGE(Table58103[[#This Row],[en]:[vi]])</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+    </row>
+    <row r="70" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A75" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="24"/>
+      <c r="P75" s="24"/>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="24"/>
+      <c r="S75" s="24"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="I76" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="11"/>
+      <c r="K76" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M76" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P76" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S76" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="T76" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A77" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="17">
+        <v>65.77</v>
+      </c>
+      <c r="C77" s="17">
+        <v>30.54</v>
+      </c>
+      <c r="D77" s="17">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E77" s="17">
+        <v>25.52</v>
+      </c>
+      <c r="F77" s="17">
+        <v>24.37</v>
+      </c>
+      <c r="G77" s="17">
+        <v>41.11</v>
+      </c>
+      <c r="H77" s="17">
+        <v>28.84</v>
+      </c>
+      <c r="I77" s="28">
+        <f t="shared" ref="I77:I79" si="2">AVERAGE(B77:H77)</f>
+        <v>35.778571428571432</v>
+      </c>
+      <c r="J77" s="11"/>
+      <c r="K77" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L77" s="17">
+        <v>78.02</v>
+      </c>
+      <c r="M77" s="17">
+        <v>43.46</v>
+      </c>
+      <c r="N77" s="17">
+        <v>47.89</v>
+      </c>
+      <c r="O77" s="17">
+        <v>36.630000000000003</v>
+      </c>
+      <c r="P77" s="17">
+        <v>35.74</v>
+      </c>
+      <c r="Q77" s="17">
+        <v>53.68</v>
+      </c>
+      <c r="R77" s="17">
+        <v>39.79</v>
+      </c>
+      <c r="S77" s="28">
+        <f t="shared" ref="S77:S79" si="3">AVERAGE(L77:R77)</f>
+        <v>47.887142857142862</v>
+      </c>
+      <c r="T77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A78" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="18">
+        <v>38.840000000000003</v>
+      </c>
+      <c r="C78" s="18">
+        <v>44.55</v>
+      </c>
+      <c r="D78" s="18">
+        <v>26.87</v>
+      </c>
+      <c r="E78" s="18">
+        <v>27.5</v>
+      </c>
+      <c r="F78" s="18">
+        <v>20.48</v>
+      </c>
+      <c r="G78" s="18">
+        <v>28.39</v>
+      </c>
+      <c r="H78" s="18">
+        <v>28.2</v>
+      </c>
+      <c r="I78" s="28">
+        <f t="shared" si="2"/>
+        <v>30.689999999999998</v>
+      </c>
+      <c r="J78" s="11"/>
+      <c r="K78" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L78" s="18">
+        <v>55.41</v>
+      </c>
+      <c r="M78" s="18">
+        <v>62.13</v>
+      </c>
+      <c r="N78" s="18">
+        <v>39.9</v>
+      </c>
+      <c r="O78" s="18">
+        <v>39.619999999999997</v>
+      </c>
+      <c r="P78" s="18">
+        <v>31.23</v>
+      </c>
+      <c r="Q78" s="18">
+        <v>41.36</v>
+      </c>
+      <c r="R78" s="18">
+        <v>41.49</v>
+      </c>
+      <c r="S78" s="28">
+        <f t="shared" si="3"/>
+        <v>44.448571428571427</v>
+      </c>
+      <c r="T78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A79" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="17">
+        <v>43.31</v>
+      </c>
+      <c r="C79" s="17">
+        <v>28.79</v>
+      </c>
+      <c r="D79" s="17">
+        <v>49.51</v>
+      </c>
+      <c r="E79" s="17">
+        <v>27.84</v>
+      </c>
+      <c r="F79" s="17">
+        <v>25.18</v>
+      </c>
+      <c r="G79" s="17">
+        <v>32.6</v>
+      </c>
+      <c r="H79" s="17">
+        <v>27.25</v>
+      </c>
+      <c r="I79" s="28">
+        <f t="shared" si="2"/>
+        <v>33.497142857142855</v>
+      </c>
+      <c r="J79" s="11"/>
+      <c r="K79" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L79" s="17">
+        <v>61.31</v>
+      </c>
+      <c r="M79" s="17">
+        <v>44.76</v>
+      </c>
+      <c r="N79" s="17">
+        <v>68.02</v>
+      </c>
+      <c r="O79" s="17">
+        <v>43.66</v>
+      </c>
+      <c r="P79" s="17">
+        <v>39.89</v>
+      </c>
+      <c r="Q79" s="17">
+        <v>49.32</v>
+      </c>
+      <c r="R79" s="17">
+        <v>41.05</v>
+      </c>
+      <c r="S79" s="28">
+        <f t="shared" si="3"/>
+        <v>49.715714285714284</v>
+      </c>
+      <c r="T79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A80" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="18">
+        <v>33.4</v>
+      </c>
+      <c r="C80" s="18">
+        <v>26.32</v>
+      </c>
+      <c r="D80" s="18">
+        <v>22.44</v>
+      </c>
+      <c r="E80" s="18">
+        <v>41.48</v>
+      </c>
+      <c r="F80" s="18">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="G80" s="18">
+        <v>24.55</v>
+      </c>
+      <c r="H80" s="18">
+        <v>23.78</v>
+      </c>
+      <c r="I80" s="28">
+        <f>AVERAGE(B80:H80)</f>
+        <v>27.474285714285713</v>
+      </c>
+      <c r="J80" s="11"/>
+      <c r="K80" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" s="18">
+        <v>52.97</v>
+      </c>
+      <c r="M80" s="18">
+        <v>43.43</v>
+      </c>
+      <c r="N80" s="18">
+        <v>39.61</v>
+      </c>
+      <c r="O80" s="18">
+        <v>63.92</v>
+      </c>
+      <c r="P80" s="18">
+        <v>34.99</v>
+      </c>
+      <c r="Q80" s="18">
+        <v>41.83</v>
+      </c>
+      <c r="R80" s="18">
+        <v>41.73</v>
+      </c>
+      <c r="S80" s="28">
+        <f>AVERAGE(L80:R80)</f>
+        <v>45.497142857142862</v>
+      </c>
+      <c r="T80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A81" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="17">
+        <v>31.06</v>
+      </c>
+      <c r="C81" s="17">
+        <v>16.93</v>
+      </c>
+      <c r="D81" s="17">
+        <v>22.8</v>
+      </c>
+      <c r="E81" s="17">
+        <v>18.78</v>
+      </c>
+      <c r="F81" s="17">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="G81" s="17">
+        <v>27.04</v>
+      </c>
+      <c r="H81" s="17">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="I81" s="28">
+        <f t="shared" ref="I81:I83" si="4">AVERAGE(B81:H81)</f>
+        <v>24.588571428571431</v>
+      </c>
+      <c r="J81" s="11"/>
+      <c r="K81" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L81" s="17">
+        <v>47.65</v>
+      </c>
+      <c r="M81" s="17">
+        <v>28.01</v>
+      </c>
+      <c r="N81" s="17">
+        <v>36.85</v>
+      </c>
+      <c r="O81" s="17">
+        <v>31.78</v>
+      </c>
+      <c r="P81" s="17">
+        <v>56.75</v>
+      </c>
+      <c r="Q81" s="17">
+        <v>42.42</v>
+      </c>
+      <c r="R81" s="17">
+        <v>29.7</v>
+      </c>
+      <c r="S81" s="28">
+        <f t="shared" ref="S81:S83" si="5">AVERAGE(L81:R81)</f>
+        <v>39.022857142857141</v>
+      </c>
+      <c r="T81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A82" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="18">
+        <v>45.49</v>
+      </c>
+      <c r="C82" s="18">
+        <v>29.79</v>
+      </c>
+      <c r="D82" s="18">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="E82" s="18">
+        <v>29.12</v>
+      </c>
+      <c r="F82" s="18">
+        <v>29.11</v>
+      </c>
+      <c r="G82" s="18">
+        <v>49.13</v>
+      </c>
+      <c r="H82" s="18">
+        <v>26.21</v>
+      </c>
+      <c r="I82" s="28">
+        <f t="shared" si="4"/>
+        <v>34.654285714285713</v>
+      </c>
+      <c r="J82" s="11"/>
+      <c r="K82" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L82" s="17">
+        <v>58.85</v>
+      </c>
+      <c r="M82" s="17">
+        <v>41.42</v>
+      </c>
+      <c r="N82" s="17">
+        <v>45.71</v>
+      </c>
+      <c r="O82" s="17">
+        <v>40.98</v>
+      </c>
+      <c r="P82" s="17">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Q82" s="17">
+        <v>63.53</v>
+      </c>
+      <c r="R82" s="17">
+        <v>36.549999999999997</v>
+      </c>
+      <c r="S82" s="28">
+        <f t="shared" si="5"/>
+        <v>46.548571428571428</v>
+      </c>
+      <c r="T82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A83" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="17">
+        <v>36.74</v>
+      </c>
+      <c r="C83" s="17">
+        <v>25.06</v>
+      </c>
+      <c r="D83" s="17">
+        <v>24.23</v>
+      </c>
+      <c r="E83" s="17">
+        <v>25.27</v>
+      </c>
+      <c r="F83" s="17">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="G83" s="17">
+        <v>26.87</v>
+      </c>
+      <c r="H83" s="17">
+        <v>45.88</v>
+      </c>
+      <c r="I83" s="28">
+        <f t="shared" si="4"/>
+        <v>29.028571428571428</v>
+      </c>
+      <c r="J83" s="11"/>
+      <c r="K83" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83" s="18">
+        <v>52.93</v>
+      </c>
+      <c r="M83" s="18">
+        <v>37.9</v>
+      </c>
+      <c r="N83" s="18">
+        <v>36.26</v>
+      </c>
+      <c r="O83" s="18">
+        <v>38.14</v>
+      </c>
+      <c r="P83" s="18">
+        <v>30.23</v>
+      </c>
+      <c r="Q83" s="18">
+        <v>41.47</v>
+      </c>
+      <c r="R83" s="18">
+        <v>65.239999999999995</v>
+      </c>
+      <c r="S83" s="28">
+        <f t="shared" si="5"/>
+        <v>43.167142857142856</v>
+      </c>
+      <c r="T83" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="K4:N4"/>
+  <mergeCells count="15">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="K7:S7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="A69:S69"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="K75:S75"/>
+    <mergeCell ref="A35:S35"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="K41:S41"/>
+    <mergeCell ref="A52:S52"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="K58:S58"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q16">
+  <conditionalFormatting sqref="L9:R15">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:H15">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I15">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:S15">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:R32">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:H32">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26:I32">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S32">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43:R43">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:H43">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S43">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:H49">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:I49">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44:R49">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S44:S49">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L60:R60">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:H60">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S60">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:H66">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:I66">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L61:R66">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S61:S66">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A77:H77">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80:I83 A78:H79 I77:I79">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -959,7 +5672,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:R13">
+  <conditionalFormatting sqref="L77:R77 L82:R82">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -971,7 +5684,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:I13">
+  <conditionalFormatting sqref="L80:S80 L83:R83 L81:R81 S81:S83 L78:R79 S77:S79">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -985,6 +5698,16 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="8">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Results/Experiments_Results.xlsx
+++ b/Results/Experiments_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\masters-research-qa\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3330A383-3A50-4F4B-AAA1-5893A016B86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE93C8-1AEE-4E34-A799-A81FD7C731BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,6 +475,16 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -484,16 +494,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -2925,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="T71" sqref="T71"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="T78" sqref="T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2981,29 +2981,29 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -3513,29 +3513,29 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="27" t="s">
+      <c r="K24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -3870,29 +3870,29 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="27" t="s">
+      <c r="K41" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -4397,29 +4397,29 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="27" t="s">
+      <c r="K58" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
@@ -4688,27 +4688,27 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="22"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="22"/>
-      <c r="S69" s="22"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
@@ -4824,29 +4824,29 @@
       <c r="S74" s="11"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
+      <c r="B75" s="27"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="24" t="s">
+      <c r="K75" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="N75" s="24"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="24"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
@@ -4933,7 +4933,7 @@
       <c r="H77" s="17">
         <v>28.84</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="22">
         <f t="shared" ref="I77:I79" si="2">AVERAGE(B77:H77)</f>
         <v>35.778571428571432</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="R77" s="17">
         <v>39.79</v>
       </c>
-      <c r="S77" s="28">
+      <c r="S77" s="22">
         <f t="shared" ref="S77:S79" si="3">AVERAGE(L77:R77)</f>
         <v>47.887142857142862</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="H78" s="18">
         <v>28.2</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="22">
         <f t="shared" si="2"/>
         <v>30.689999999999998</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="R78" s="18">
         <v>41.49</v>
       </c>
-      <c r="S78" s="28">
+      <c r="S78" s="22">
         <f t="shared" si="3"/>
         <v>44.448571428571427</v>
       </c>
@@ -5057,7 +5057,7 @@
       <c r="H79" s="17">
         <v>27.25</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="22">
         <f t="shared" si="2"/>
         <v>33.497142857142855</v>
       </c>
@@ -5086,7 +5086,7 @@
       <c r="R79" s="17">
         <v>41.05</v>
       </c>
-      <c r="S79" s="28">
+      <c r="S79" s="22">
         <f t="shared" si="3"/>
         <v>49.715714285714284</v>
       </c>
@@ -5119,7 +5119,7 @@
       <c r="H80" s="18">
         <v>23.78</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="22">
         <f>AVERAGE(B80:H80)</f>
         <v>27.474285714285713</v>
       </c>
@@ -5148,7 +5148,7 @@
       <c r="R80" s="18">
         <v>41.73</v>
       </c>
-      <c r="S80" s="28">
+      <c r="S80" s="22">
         <f>AVERAGE(L80:R80)</f>
         <v>45.497142857142862</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="H81" s="17">
         <v>18.420000000000002</v>
       </c>
-      <c r="I81" s="28">
+      <c r="I81" s="22">
         <f t="shared" ref="I81:I83" si="4">AVERAGE(B81:H81)</f>
         <v>24.588571428571431</v>
       </c>
@@ -5210,7 +5210,7 @@
       <c r="R81" s="17">
         <v>29.7</v>
       </c>
-      <c r="S81" s="28">
+      <c r="S81" s="22">
         <f t="shared" ref="S81:S83" si="5">AVERAGE(L81:R81)</f>
         <v>39.022857142857141</v>
       </c>
@@ -5243,7 +5243,7 @@
       <c r="H82" s="18">
         <v>26.21</v>
       </c>
-      <c r="I82" s="28">
+      <c r="I82" s="22">
         <f t="shared" si="4"/>
         <v>34.654285714285713</v>
       </c>
@@ -5272,7 +5272,7 @@
       <c r="R82" s="17">
         <v>36.549999999999997</v>
       </c>
-      <c r="S82" s="28">
+      <c r="S82" s="22">
         <f t="shared" si="5"/>
         <v>46.548571428571428</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="H83" s="17">
         <v>45.88</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I83" s="22">
         <f t="shared" si="4"/>
         <v>29.028571428571428</v>
       </c>
@@ -5334,7 +5334,7 @@
       <c r="R83" s="18">
         <v>65.239999999999995</v>
       </c>
-      <c r="S83" s="28">
+      <c r="S83" s="22">
         <f t="shared" si="5"/>
         <v>43.167142857142856</v>
       </c>
@@ -5344,12 +5344,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="K7:S7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="K24:S24"/>
     <mergeCell ref="A69:S69"/>
     <mergeCell ref="A75:I75"/>
     <mergeCell ref="K75:S75"/>
@@ -5359,6 +5353,12 @@
     <mergeCell ref="A52:S52"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="K58:S58"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="K7:S7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:R15">
     <cfRule type="colorScale" priority="32">

--- a/Results/Experiments_Results.xlsx
+++ b/Results/Experiments_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\masters-research-qa\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCE93C8-1AEE-4E34-A799-A81FD7C731BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0EAF63-BCED-4A55-98B8-29BC85DCD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLQA" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="36">
   <si>
     <t>hi</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>vanichandna/xlm-roberta-finetuned-squad</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>Exact Match</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>TAPT + Knowledge Distillation</t>
+  </si>
+  <si>
+    <t>Baseline</t>
   </si>
 </sst>
 </file>
@@ -476,15 +491,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,6 +498,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2925,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="T78" sqref="T78"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K75" sqref="K75:S75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2936,27 +2951,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -2981,29 +2996,29 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -3468,27 +3483,27 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
     </row>
     <row r="19" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -3513,29 +3528,29 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -3830,27 +3845,27 @@
       <c r="S32" s="10"/>
     </row>
     <row r="35" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
     </row>
     <row r="36" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -3870,29 +3885,29 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="28"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="28"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -4357,27 +4372,27 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
     </row>
     <row r="53" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -4397,29 +4412,29 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="28"/>
+      <c r="S58" s="28"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
@@ -4688,27 +4703,27 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
@@ -4824,29 +4839,29 @@
       <c r="S74" s="11"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="28" t="s">
+      <c r="K75" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
@@ -5344,6 +5359,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="K7:S7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:S24"/>
     <mergeCell ref="A69:S69"/>
     <mergeCell ref="A75:I75"/>
     <mergeCell ref="K75:S75"/>
@@ -5353,12 +5374,6 @@
     <mergeCell ref="A52:S52"/>
     <mergeCell ref="A58:I58"/>
     <mergeCell ref="K58:S58"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="K7:S7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="K24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:R15">
     <cfRule type="colorScale" priority="32">
@@ -5713,13 +5728,351 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82680DC-2B64-423A-A7DF-C4B818C3ED7F}">
-  <dimension ref="A1"/>
+  <dimension ref="A5:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="K5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="17">
+        <v>68.91</v>
+      </c>
+      <c r="C7" s="17">
+        <v>43.7</v>
+      </c>
+      <c r="D7" s="17">
+        <v>54.62</v>
+      </c>
+      <c r="E7" s="17">
+        <v>53.36</v>
+      </c>
+      <c r="F7" s="17">
+        <v>46.22</v>
+      </c>
+      <c r="G7" s="17">
+        <v>47.48</v>
+      </c>
+      <c r="H7" s="17">
+        <v>49.46</v>
+      </c>
+      <c r="I7" s="17">
+        <f>AVERAGE(B7:H7)</f>
+        <v>51.964285714285708</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="17">
+        <v>79.81</v>
+      </c>
+      <c r="M7" s="17">
+        <v>59.82</v>
+      </c>
+      <c r="N7" s="17">
+        <v>69.38</v>
+      </c>
+      <c r="O7" s="17">
+        <v>71.37</v>
+      </c>
+      <c r="P7" s="17">
+        <v>61.01</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>65.69</v>
+      </c>
+      <c r="R7" s="17">
+        <v>58.88</v>
+      </c>
+      <c r="S7" s="17">
+        <f>AVERAGE(L7:R7)</f>
+        <v>66.565714285714279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="17">
+        <v>70.34</v>
+      </c>
+      <c r="C8" s="17">
+        <v>48.41</v>
+      </c>
+      <c r="D8" s="17">
+        <v>57.73</v>
+      </c>
+      <c r="E8" s="17">
+        <v>59.33</v>
+      </c>
+      <c r="F8" s="17">
+        <v>54.2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>55.38</v>
+      </c>
+      <c r="H8" s="17">
+        <v>65.38</v>
+      </c>
+      <c r="I8" s="17">
+        <f>AVERAGE(B8:H8)</f>
+        <v>58.681428571428569</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8" s="17">
+        <v>81.349999999999994</v>
+      </c>
+      <c r="M8" s="17">
+        <v>65.64</v>
+      </c>
+      <c r="N8" s="17">
+        <v>72.52</v>
+      </c>
+      <c r="O8" s="17">
+        <v>76.67</v>
+      </c>
+      <c r="P8" s="17">
+        <v>69.94</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>73.849999999999994</v>
+      </c>
+      <c r="R8" s="17">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="S8" s="17">
+        <f>AVERAGE(L8:R8)</f>
+        <v>72.695714285714288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="18">
+        <v>71.680000000000007</v>
+      </c>
+      <c r="C9" s="18">
+        <v>52.18</v>
+      </c>
+      <c r="D9" s="18">
+        <v>61</v>
+      </c>
+      <c r="E9" s="18">
+        <v>55.8</v>
+      </c>
+      <c r="F9" s="18">
+        <v>54.45</v>
+      </c>
+      <c r="G9" s="18">
+        <v>56.64</v>
+      </c>
+      <c r="H9" s="18">
+        <v>73.11</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" ref="I9" si="0">AVERAGE(B9:H9)</f>
+        <v>60.694285714285719</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="18">
+        <v>82.87</v>
+      </c>
+      <c r="M9" s="18">
+        <v>68.89</v>
+      </c>
+      <c r="N9" s="18">
+        <v>75.94</v>
+      </c>
+      <c r="O9" s="18">
+        <v>75.02</v>
+      </c>
+      <c r="P9" s="18">
+        <v>70.53</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>75.17</v>
+      </c>
+      <c r="R9" s="18">
+        <v>75.92</v>
+      </c>
+      <c r="S9" s="17">
+        <f t="shared" ref="S9" si="1">AVERAGE(L9:R9)</f>
+        <v>74.905714285714296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="K5:S5"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:I8 I8:I9">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:H9">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:S7 S9 L8:S8">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9:R9">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Results/Experiments_Results.xlsx
+++ b/Results/Experiments_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\masters-research-qa\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0EAF63-BCED-4A55-98B8-29BC85DCD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8035DC0-4800-4930-86BF-ED0F79C45AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Results/Experiments_Results.xlsx
+++ b/Results/Experiments_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\masters-research-qa\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8035DC0-4800-4930-86BF-ED0F79C45AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577A94E5-FA55-4004-9EF7-D7650177CD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="MLQA" sheetId="1" r:id="rId1"/>
     <sheet name="XQuAD" sheetId="2" r:id="rId2"/>
     <sheet name="LAreQA" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MLQA!$A$76:$S$76</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="48">
   <si>
     <t>hi</t>
   </si>
@@ -135,6 +136,18 @@
     <t>vanichandna/xlm-roberta-finetuned-squad</t>
   </si>
   <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>ru</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
     <t>avg</t>
   </si>
   <si>
@@ -148,6 +161,30 @@
   </si>
   <si>
     <t>Baseline</t>
+  </si>
+  <si>
+    <t>bn</t>
+  </si>
+  <si>
+    <t>fi</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -2675,6 +2712,17 @@
 </table>
 </file>
 
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{DF65C7FA-1124-41EC-9A0C-C62097B8196F}" name="Table10" displayName="Table10" ref="A5:B21" totalsRowShown="0">
+  <autoFilter ref="A5:B21" xr:uid="{DF65C7FA-1124-41EC-9A0C-C62097B8196F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B7999FA9-9B72-4EB6-9296-F4F5F3BBC8ED}" name="Language"/>
+    <tableColumn id="2" xr3:uid="{1D1B636A-33A2-4D0B-8285-5437E7DA96D6}" name="Count"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2940,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="K75" sqref="K75:S75"/>
     </sheetView>
   </sheetViews>
@@ -5730,8 +5778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82680DC-2B64-423A-A7DF-C4B818C3ED7F}">
   <dimension ref="A5:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5742,7 +5790,7 @@
   <sheetData>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
@@ -5753,7 +5801,7 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="K5" s="25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
@@ -5790,7 +5838,7 @@
         <v>6</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K6" s="19" t="s">
         <v>14</v>
@@ -5817,12 +5865,12 @@
         <v>6</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="17">
         <v>68.91</v>
@@ -5850,7 +5898,7 @@
         <v>51.964285714285708</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L7" s="17">
         <v>79.81</v>
@@ -5938,7 +5986,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B9" s="18">
         <v>71.680000000000007</v>
@@ -5966,7 +6014,7 @@
         <v>60.694285714285719</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L9" s="18">
         <v>82.87</v>
@@ -6086,4 +6134,195 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E210D27-1723-47AE-8660-08824278ACBC}">
+  <dimension ref="A5:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>86787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>85181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>82603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>79946</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>87488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>86914</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>85804</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13">
+        <v>87167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>85757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>84869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>86311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>87091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>85846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>86511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>87187</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>85700</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B6:B21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Results/Experiments_Results.xlsx
+++ b/Results/Experiments_Results.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\masters-research-qa\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A94C21-7F19-456F-84F4-E24B4006010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D42BF20-1485-4701-A028-EBF329B2349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLQA" sheetId="1" r:id="rId1"/>
     <sheet name="XQuAD" sheetId="2" r:id="rId2"/>
-    <sheet name="LAreQA" sheetId="3" r:id="rId3"/>
+    <sheet name="SQuAD-IT" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="53">
   <si>
     <t>hi</t>
   </si>
@@ -188,6 +188,18 @@
   </si>
   <si>
     <t>Adapters</t>
+  </si>
+  <si>
+    <t>KD-DE</t>
+  </si>
+  <si>
+    <t>KD-EN</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>KD-ES</t>
   </si>
 </sst>
 </file>
@@ -573,15 +585,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,15 +603,15 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Accent1" xfId="4" builtinId="29"/>
@@ -3864,6 +3876,1278 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1356343839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>XQuAD F1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Scores</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XQuAD!$K$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>XQuAD!$L$6:$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>de</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>es</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>vi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XQuAD!$L$7:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>79.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.565714285714279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-560B-4623-8999-21BF5D6C3C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XQuAD!$K$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>XQuAD!$L$6:$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>de</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>es</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>vi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XQuAD!$L$8:$S$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>81.349999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.695714285714288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-560B-4623-8999-21BF5D6C3C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XQuAD!$K$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAPT + Knowledge Distillation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>XQuAD!$L$6:$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>de</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>es</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>vi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XQuAD!$L$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>82.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>74.905714285714296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-560B-4623-8999-21BF5D6C3C8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1931420303"/>
+        <c:axId val="1931416559"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1931420303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>language</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1931416559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1931416559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>F1 Scores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1931420303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>SQuAD-IT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> Benchmark</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SQuAD-IT'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SQuAD-IT'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KD-DE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KD-ES</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KD-EN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SQuAD-IT'!$B$3:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>57.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-334C-437F-8F5E-81C10AACCFB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SQuAD-IT'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'SQuAD-IT'!$A$3:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KD-DE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KD-ES</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>KD-EN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'SQuAD-IT'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>70.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-334C-437F-8F5E-81C10AACCFB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1928393839"/>
+        <c:axId val="1928396335"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1928393839"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928396335"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1928396335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1928393839"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13133,7 +14417,862 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>XQuAD</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" baseline="0"/>
+              <a:t> EM Scores</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XQuAD!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>XQuAD!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>de</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>es</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>vi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XQuAD!$B$7:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>68.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54.62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46.22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.48</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.964285714285708</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7012-465E-B5BE-0B922E642135}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XQuAD!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>XQuAD!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>de</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>es</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>vi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XQuAD!$B$8:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>70.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.681428571428569</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7012-465E-B5BE-0B922E642135}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>XQuAD!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TAPT + Knowledge Distillation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>XQuAD!$B$6:$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>en</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>de</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>es</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>hi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>vi</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>zh</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>XQuAD!$B$9:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>71.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54.45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.694285714285719</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7012-465E-B5BE-0B922E642135}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="45278335"/>
+        <c:axId val="45260863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45278335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Language</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45260863"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45260863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>EM Scores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="45278335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13453,6 +15592,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
@@ -13966,6 +16145,998 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="328">
   <cs:axisTitle>
@@ -17552,6 +20723,502 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -17846,6 +21513,124 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>474345</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCC11E8-7C92-41A4-8F8E-490A40F883E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>141922</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>21906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC75D9D-8BED-4D32-9448-9C7171188629}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>450532</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>325755</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>92393</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0416EE-8438-4E17-9666-D1FBD8AAB495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18297,27 +22082,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -18342,29 +22127,29 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -18829,27 +22614,27 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
     </row>
     <row r="19" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -18874,29 +22659,29 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -19191,27 +22976,27 @@
       <c r="S32" s="10"/>
     </row>
     <row r="35" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="25"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
     </row>
     <row r="36" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -19231,29 +23016,29 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -19718,27 +23503,27 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
     </row>
     <row r="53" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -19758,29 +23543,29 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="24" t="s">
+      <c r="K58" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="24"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
@@ -20051,27 +23836,27 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
@@ -20187,29 +23972,29 @@
       <c r="S74" s="11"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
+      <c r="B75" s="33"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="28" t="s">
+      <c r="K75" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L75" s="28"/>
-      <c r="M75" s="28"/>
-      <c r="N75" s="28"/>
-      <c r="O75" s="28"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
@@ -20284,7 +24069,7 @@
       <c r="D77" s="17">
         <v>34.299999999999997</v>
       </c>
-      <c r="E77" s="29">
+      <c r="E77" s="23">
         <v>25.52</v>
       </c>
       <c r="F77" s="17">
@@ -20706,27 +24491,27 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="26" t="s">
+      <c r="A86" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="26"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="26"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="32"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
@@ -20842,29 +24627,29 @@
       <c r="S91" s="11"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
+      <c r="B92" s="33"/>
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="33"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="28" t="s">
+      <c r="K92" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L92" s="28"/>
-      <c r="M92" s="28"/>
-      <c r="N92" s="28"/>
-      <c r="O92" s="28"/>
-      <c r="P92" s="28"/>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="28"/>
-      <c r="S92" s="28"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
@@ -20930,7 +24715,7 @@
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
-      <c r="E94" s="29"/>
+      <c r="E94" s="23"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
       <c r="H94" s="17"/>
@@ -21079,22 +24864,22 @@
       <c r="A98" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B98" s="30">
+      <c r="B98" s="24">
         <v>0.99</v>
       </c>
-      <c r="C98" s="31">
+      <c r="C98" s="25">
         <v>0.65</v>
       </c>
-      <c r="D98" s="32">
+      <c r="D98" s="26">
         <v>1.1599999999999999</v>
       </c>
       <c r="E98" s="17">
         <v>0.73</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F98" s="28">
         <v>1.2</v>
       </c>
-      <c r="G98" s="35">
+      <c r="G98" s="29">
         <v>1.45</v>
       </c>
       <c r="H98" s="17">
@@ -21108,22 +24893,22 @@
       <c r="K98" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L98" s="36">
+      <c r="L98" s="30">
         <v>9.17</v>
       </c>
-      <c r="M98" s="37">
+      <c r="M98" s="31">
         <v>9.3800000000000008</v>
       </c>
-      <c r="N98" s="31">
+      <c r="N98" s="25">
         <v>8.86</v>
       </c>
       <c r="O98" s="17">
         <v>9.26</v>
       </c>
-      <c r="P98" s="32">
+      <c r="P98" s="26">
         <v>9.35</v>
       </c>
-      <c r="Q98" s="35">
+      <c r="Q98" s="29">
         <v>10.74</v>
       </c>
       <c r="R98" s="17">
@@ -21146,7 +24931,7 @@
       <c r="G99" s="18"/>
       <c r="H99" s="18"/>
       <c r="I99" s="22" t="e">
-        <f t="shared" ref="I98:I100" si="8">AVERAGE(B99:H99)</f>
+        <f t="shared" ref="I99:I100" si="8">AVERAGE(B99:H99)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J99" s="11"/>
@@ -21161,7 +24946,7 @@
       <c r="Q99" s="17"/>
       <c r="R99" s="17"/>
       <c r="S99" s="22" t="e">
-        <f t="shared" ref="S98:S100" si="9">AVERAGE(L99:R99)</f>
+        <f t="shared" ref="S99:S100" si="9">AVERAGE(L99:R99)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21197,29 +24982,29 @@
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D106" s="33"/>
-      <c r="N106" s="33"/>
+      <c r="D106" s="27"/>
+      <c r="N106" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="K7:S7"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A18:S18"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:S24"/>
+    <mergeCell ref="A35:S35"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="K41:S41"/>
+    <mergeCell ref="A52:S52"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="K58:S58"/>
     <mergeCell ref="A86:S86"/>
     <mergeCell ref="A92:I92"/>
     <mergeCell ref="K92:S92"/>
     <mergeCell ref="A69:S69"/>
     <mergeCell ref="A75:I75"/>
     <mergeCell ref="K75:S75"/>
-    <mergeCell ref="A35:S35"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="K41:S41"/>
-    <mergeCell ref="A52:S52"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="K58:S58"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="K7:S7"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A18:S18"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="K24:S24"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:R15">
     <cfRule type="colorScale" priority="36">
@@ -21625,8 +25410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82680DC-2B64-423A-A7DF-C4B818C3ED7F}">
   <dimension ref="A5:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21636,28 +25421,28 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="K5" s="28" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="K5" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -21968,18 +25753,275 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E7FCD4-2E60-4AB1-975A-95BC4C49F966}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="17">
+        <v>57.27</v>
+      </c>
+      <c r="C3" s="17">
+        <v>70.36</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="17">
+        <v>60.69</v>
+      </c>
+      <c r="C4" s="17">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="17">
+        <v>58.54</v>
+      </c>
+      <c r="C5" s="17">
+        <v>72.14</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="18">
+        <v>59.87</v>
+      </c>
+      <c r="C6" s="18">
+        <v>72.69</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="K4:K5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B5 I6 D3:I5">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:B6 D6:H6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:S3 S6 L4:S5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:R6">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Results/Experiments_Results.xlsx
+++ b/Results/Experiments_Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\masters-research-qa\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D42BF20-1485-4701-A028-EBF329B2349A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77516E7-D276-42F2-AC88-F7B892EFA738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLQA" sheetId="1" r:id="rId1"/>
     <sheet name="XQuAD" sheetId="2" r:id="rId2"/>
     <sheet name="SQuAD-IT" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="KORQuAD" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MLQA!$A$76:$S$76</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="56">
   <si>
     <t>hi</t>
   </si>
@@ -200,6 +201,15 @@
   </si>
   <si>
     <t>KD-ES</t>
+  </si>
+  <si>
+    <t>SQuAD-IT</t>
+  </si>
+  <si>
+    <t>KORQuAD</t>
+  </si>
+  <si>
+    <t>KD-ZH</t>
   </si>
 </sst>
 </file>
@@ -594,6 +604,15 @@
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,15 +620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4785,7 +4795,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> Benchmark</a:t>
+              <a:t> Benchmarks</a:t>
             </a:r>
             <a:endParaRPr lang="en-IN"/>
           </a:p>
@@ -4886,6 +4896,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'SQuAD-IT'!$A$3:$A$6</c:f>
@@ -4986,6 +5052,62 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'SQuAD-IT'!$A$3:$A$6</c:f>
@@ -5034,8 +5156,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -5053,6 +5176,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Model TRAINED on LANGUAGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5117,6 +5293,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Scores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5148,6 +5377,705 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1928393839"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>KORQuAD Benchmarks</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KORQuAD!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>KORQuAD!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KD-EN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KD-ZH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KORQuAD!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>51.51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-65AC-40C8-B230-F436EC2665AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>KORQuAD!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>KORQuAD!$A$3:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Baseline</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>KD-EN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>KD-ZH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>KORQuAD!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>61.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69.040000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-65AC-40C8-B230-F436EC2665AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1121854016"/>
+        <c:axId val="1121839040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1121854016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>model trained on language</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1121839040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1121839040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>scores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1121854016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15312,6 +16240,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16642,6 +17610,502 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21602,16 +23066,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>450532</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>16192</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>325755</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>92393</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>501015</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16193</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21619,6 +23083,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0416EE-8438-4E17-9666-D1FBD8AAB495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFCCD7A-0AEA-4B05-9A2A-21F3669AF414}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -22082,27 +23587,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -22127,29 +23632,29 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -22614,27 +24119,27 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
     </row>
     <row r="19" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -22659,29 +24164,29 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -22976,27 +24481,27 @@
       <c r="S32" s="10"/>
     </row>
     <row r="35" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="34"/>
+      <c r="S35" s="34"/>
     </row>
     <row r="36" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -23016,29 +24521,29 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="2"/>
-      <c r="K41" s="37" t="s">
+      <c r="K41" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="37"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="37"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
@@ -23503,27 +25008,27 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
     </row>
     <row r="53" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -23543,29 +25048,29 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="36"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="36"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="37" t="s">
+      <c r="K58" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
@@ -23836,27 +25341,27 @@
       </c>
     </row>
     <row r="69" spans="1:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B69" s="32"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
+      <c r="R69" s="35"/>
+      <c r="S69" s="35"/>
     </row>
     <row r="70" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
@@ -23972,29 +25477,29 @@
       <c r="S74" s="11"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="33"/>
-      <c r="I75" s="33"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
       <c r="J75" s="12"/>
-      <c r="K75" s="34" t="s">
+      <c r="K75" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34"/>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
-      <c r="P75" s="34"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="34"/>
-      <c r="S75" s="34"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
@@ -24491,27 +25996,27 @@
       </c>
     </row>
     <row r="86" spans="1:20" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B86" s="32"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35"/>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
     </row>
     <row r="87" spans="1:20" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
@@ -24627,29 +26132,29 @@
       <c r="S91" s="11"/>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="34" t="s">
+      <c r="K92" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
@@ -24987,24 +26492,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A86:S86"/>
+    <mergeCell ref="A92:I92"/>
+    <mergeCell ref="K92:S92"/>
+    <mergeCell ref="A69:S69"/>
+    <mergeCell ref="A75:I75"/>
+    <mergeCell ref="K75:S75"/>
+    <mergeCell ref="A35:S35"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="K41:S41"/>
+    <mergeCell ref="A52:S52"/>
+    <mergeCell ref="A58:I58"/>
+    <mergeCell ref="K58:S58"/>
     <mergeCell ref="A7:I7"/>
     <mergeCell ref="K7:S7"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A18:S18"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="K24:S24"/>
-    <mergeCell ref="A35:S35"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="K41:S41"/>
-    <mergeCell ref="A52:S52"/>
-    <mergeCell ref="A58:I58"/>
-    <mergeCell ref="K58:S58"/>
-    <mergeCell ref="A86:S86"/>
-    <mergeCell ref="A92:I92"/>
-    <mergeCell ref="K92:S92"/>
-    <mergeCell ref="A69:S69"/>
-    <mergeCell ref="A75:I75"/>
-    <mergeCell ref="K75:S75"/>
   </mergeCells>
   <conditionalFormatting sqref="L9:R15">
     <cfRule type="colorScale" priority="36">
@@ -25421,28 +26926,28 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="K5" s="34" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="K5" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -25759,37 +27264,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E7FCD4-2E60-4AB1-975A-95BC4C49F966}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
@@ -25805,17 +27301,8 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -25831,17 +27318,8 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>49</v>
       </c>
@@ -25857,17 +27335,8 @@
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>52</v>
       </c>
@@ -25883,17 +27352,8 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>50</v>
       </c>
@@ -25909,45 +27369,11 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="17"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K1:S1"/>
   </mergeCells>
-  <conditionalFormatting sqref="K4:K5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A3:B5 I6 D3:I5">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -25962,30 +27388,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:B6 D6:H6">
     <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:S3 S6 L4:S5">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:R6">
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -26026,11 +27428,135 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0482654-746B-41F0-B950-3A7AA7600544}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="17">
+        <v>51.51</v>
+      </c>
+      <c r="C3" s="17">
+        <v>61.82</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="17">
+        <v>54.12</v>
+      </c>
+      <c r="C4" s="17">
+        <v>64.63</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="17">
+        <v>58.43</v>
+      </c>
+      <c r="C5" s="17">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C3:C5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:B5 D3:I5">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E210D27-1723-47AE-8660-08824278ACBC}">
   <dimension ref="A5:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
